--- a/OpioidCodeAThon_metaData.xlsx
+++ b/OpioidCodeAThon_metaData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="22020" windowHeight="14300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="51560" yWindow="6620" windowWidth="25320" windowHeight="20860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Indiana" sheetId="1" r:id="rId1"/>
     <sheet name="CountyLevel, US&amp;otherStates" sheetId="2" r:id="rId2"/>
+    <sheet name="StateLevel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
   <si>
     <t>Column Number</t>
   </si>
@@ -312,33 +313,18 @@
     <t>Date(datetime), Sex (str), Race (str), Age (int), Death County (str), Cause of death (str), each drug type: Y or blank (str), DeathLoc (coord - geopy location.latitude, location.longitude)</t>
   </si>
   <si>
-    <t>2,3,4,5,11,15,16,18,19,20,22,24,27,28,32</t>
-  </si>
-  <si>
     <t>https://data.ct.gov/resource/u2qy-687x.json</t>
   </si>
   <si>
     <t>CDC_WONDER_Cause_of_Death__Multiple_Cause_County</t>
   </si>
   <si>
-    <t>2,3,4,5,6,7,8,9,13</t>
-  </si>
-  <si>
     <t>https://hhs-opioid-codeathon.data.socrata.com/resource/azsb-5fi3.json</t>
   </si>
   <si>
     <t>CDC_WONDER_Cause_of_Death___Underlying_Cause__County_</t>
   </si>
   <si>
-    <t>Year, Year Code, Multiple Cause of death, Multiple Cause of death Code, County, County Code, Deaths,  Population, Location</t>
-  </si>
-  <si>
-    <t>Year, Year Code, Underlying Cause of death, Underlying Cause of death Code,County,County Code,Deaths,  Population, Location</t>
-  </si>
-  <si>
-    <t>Year (datetime), Year code (4-digit str), Multiple COD (str), Multiple COD code (str), County (str - county,ST), County Code (int), Deaths (int), Population (int), Location (geopy - location.latitude, location.longitude)</t>
-  </si>
-  <si>
     <t>https://hhs-opioid-codeathon.data.socrata.com/resource/523d-m6kz.json</t>
   </si>
   <si>
@@ -351,9 +337,6 @@
     <t>Local (county - str), Drug (str), Year (mix of int and str), NewGeo (FIPS code, int)</t>
   </si>
   <si>
-    <t>1,2,3,4,6</t>
-  </si>
-  <si>
     <t>https://hhs-opioid-codeathon.data.socrata.com/resource/db3z-7z22.json</t>
   </si>
   <si>
@@ -366,12 +349,6 @@
     <t>Count (str), Count (int), Population (int), Age adj (mix of int and str), Location 1 (county,ST (location.latitude,location.longitude))</t>
   </si>
   <si>
-    <t>1,3,4,5,8</t>
-  </si>
-  <si>
-    <t>row 1 is state total, only 41 rows</t>
-  </si>
-  <si>
     <t>https://hhs-opioid-codeathon.data.socrata.com/resource/gfa8-b3ai.json</t>
   </si>
   <si>
@@ -393,9 +370,6 @@
     <t>https://data.medicaid.gov/resource/4qik-skk9.json</t>
   </si>
   <si>
-    <t>Drug_Products_in_the_Medicaid_Drug_Rebate_Program</t>
-  </si>
-  <si>
     <t>https://hhs-opioid-codeathon.data.socrata.com/resource/vcp5-amce.json</t>
   </si>
   <si>
@@ -498,15 +472,9 @@
     <t>not in zip drive; no FIPS code, but county name and coordinates</t>
   </si>
   <si>
-    <t>not in zip drive; row 1 is state total, only 41 rows</t>
-  </si>
-  <si>
     <t>Year, Patient County Name, ER Rate Per 1000, Inpatient ER Rate Per 1000, Inpatient Non ER Rate Per 1000, Inpatient Total Rate Per 1000, ER Inpatient Total Rate Per 1000, Ambulatory Surgery Rate Per 1000, Outpatient Rate Per 1000, Other Outpatient Total Rate Per 1000, Overall Rate Per 1000</t>
   </si>
   <si>
-    <t>1, 3, 8, 11, 14, 17, 20, 23, 26, 29, 32</t>
-  </si>
-  <si>
     <t>GEOG_ID, GEOG_NAME, DATE_START, VAR_STAT, VAR_COUNT, VAR_DENOM</t>
   </si>
   <si>
@@ -525,13 +493,67 @@
     <t>DATE_START is 2016P instead of 2016</t>
   </si>
   <si>
-    <t>NPPES Provider ZIP Code, NPPES Provide State, Specialty Description, Total Claim Count, Opioid Claim Count, Opioid Prescribing Rate</t>
-  </si>
-  <si>
-    <t>4, 5, 6, 7, 8, 9</t>
-  </si>
-  <si>
     <t>no FIPS code, but ZIP code; opioid claim count is blank if &lt; 10</t>
+  </si>
+  <si>
+    <t>County, Count, Population, Age Adjusted Rate</t>
+  </si>
+  <si>
+    <t>THESE ARE NOT YEARLY DATA SETS</t>
+  </si>
+  <si>
+    <t>STATE, YEAR, Product Name, Number of Prescriptions</t>
+  </si>
+  <si>
+    <t>https://data.medicaid.gov/resource/qpz6-74iw.json</t>
+  </si>
+  <si>
+    <t>https://data.medicaid.gov/resource/hcg7-jjb2.json</t>
+  </si>
+  <si>
+    <t>https://data.medicaid.gov/resource/m4ab-dkvc.json</t>
+  </si>
+  <si>
+    <t>https://data.medicaid.gov/resource/neai-csgh.json</t>
+  </si>
+  <si>
+    <t>https://data.medicaid.gov/resource/f8sh-7iwd.json</t>
+  </si>
+  <si>
+    <t>XX - National Drug Codes are aggregated, represent multiple states</t>
+  </si>
+  <si>
+    <t>nppes_provider_state, specialty_description, total_claim_count, opioid_claim_count, opioid_prescriber_rate</t>
+  </si>
+  <si>
+    <t>NPPES Provide State, Specialty Description, Total Claim Count, Opioid Claim Count, Opioid Prescribing Rate</t>
+  </si>
+  <si>
+    <t>State FIPS Code, County FIPS Code, County Name, State Abbreviation, Year, Unemployment Rate</t>
+  </si>
+  <si>
+    <t>Year, Multiple Cause of death, Multiple Cause of death Code, County, County Code, Deaths,  Population</t>
+  </si>
+  <si>
+    <t>Medicaid_Drug_Products_in_the_Medicaid_Drug_Rebate_Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year, </t>
+  </si>
+  <si>
+    <t>THESE ARE NOT COUNTY-LEVEL DATA SETS</t>
+  </si>
+  <si>
+    <t>not in zip drive; row 1 is state total, only 41 rows, aggregated results for 2011-2015</t>
+  </si>
+  <si>
+    <t>not in zip drive; row 1 is state total, only 41 rows; aggregated results for 2011-2015</t>
+  </si>
+  <si>
+    <t>row 1 is state total, only 41 rows; aggregated results for 2011-2015</t>
+  </si>
+  <si>
+    <t>Year, Underlying Cause of death, Underlying Cause of death Code, County, County Code, Deaths,  Population</t>
   </si>
 </sst>
 </file>
@@ -607,11 +629,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -898,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -937,13 +960,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -957,10 +980,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -971,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -985,10 +1008,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -999,10 +1022,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1013,10 +1036,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1027,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1041,10 +1064,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1055,10 +1078,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1069,10 +1092,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1083,10 +1106,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
@@ -1097,10 +1120,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -1111,10 +1134,10 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -1125,10 +1148,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -1139,10 +1162,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
@@ -1153,10 +1176,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -1167,16 +1190,16 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,10 +1207,10 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -1198,10 +1221,10 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
@@ -1212,10 +1235,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -1226,10 +1249,10 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
@@ -1240,10 +1263,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
@@ -1254,10 +1277,10 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
@@ -1268,10 +1291,10 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
@@ -1282,10 +1305,10 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
         <v>58</v>
@@ -1296,10 +1319,10 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
         <v>59</v>
@@ -1310,10 +1333,10 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>60</v>
@@ -1324,10 +1347,10 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
         <v>61</v>
@@ -1338,10 +1361,10 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
@@ -1352,10 +1375,10 @@
         <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
         <v>64</v>
@@ -1366,10 +1389,10 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
         <v>70</v>
@@ -1380,10 +1403,10 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
         <v>71</v>
@@ -1394,10 +1417,10 @@
         <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
         <v>72</v>
@@ -1408,10 +1431,10 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -1422,10 +1445,10 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
@@ -1436,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
@@ -1492,23 +1515,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="85.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="127.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="177.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1519,16 +1539,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1538,349 +1555,397 @@
       <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>100</v>
       </c>
       <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E23" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>